--- a/data/trans_orig/Q31A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,68</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,0</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,26</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,44</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,58</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,36</t>
+          <t>18,73</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,25</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,19</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,61</t>
+          <t>16,85</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 17,13</t>
+          <t>16,81; 17,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,68; 18,27</t>
+          <t>17,07; 17,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,45; 17,81</t>
+          <t>16,74; 17,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,88; 16,7</t>
+          <t>16,35; 16,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,3</t>
+          <t>17,62; 18,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,29</t>
+          <t>18,24; 19,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,6; 19,62</t>
+          <t>18,14; 19,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,72</t>
+          <t>17,18; 17,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,59</t>
+          <t>17,09; 17,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,34; 18,99</t>
+          <t>17,46; 18,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,9; 18,11</t>
+          <t>17,26; 17,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 16,94</t>
+          <t>16,67; 17,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,47 +796,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,32</t>
+          <t>17,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>17,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,58</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>18,05</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,62</t>
+          <t>18,59</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,82</t>
+          <t>18,47</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>18,47</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,53</t>
+          <t>17,54</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
+          <t>17,35</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,18</t>
+          <t>16,76; 17,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,63</t>
+          <t>17,03; 17,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,28</t>
+          <t>16,79; 17,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 16,8</t>
+          <t>16,68; 17,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,1</t>
+          <t>17,77; 18,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,07; 19,33</t>
+          <t>18,14; 19,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,19; 20,22</t>
+          <t>17,97; 19,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 18,03</t>
+          <t>17,87; 19,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,39</t>
+          <t>17,13; 17,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 17,99</t>
+          <t>17,48; 17,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,99</t>
+          <t>17,3; 17,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,11</t>
+          <t>17,12; 17,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,94</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>17,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
+          <t>17,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,05</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>19,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,47</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,46</t>
+          <t>17,38</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>17,68</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>17,98</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,38</t>
+          <t>17,33</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,13</t>
+          <t>17,13; 17,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,5</t>
+          <t>17,15; 17,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,29</t>
+          <t>16,57; 17,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,15</t>
+          <t>17,04; 17,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,77; 18,51</t>
+          <t>17,98; 19,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 19,4</t>
+          <t>18,54; 20,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 19,17</t>
+          <t>17,52; 18,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 19,1</t>
+          <t>16,37; 19,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,5</t>
+          <t>17,46; 17,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 17,97</t>
+          <t>17,65; 18,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,85</t>
+          <t>17,0; 17,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 17,66</t>
+          <t>16,55; 18,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1086,52 +1086,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,79</t>
+          <t>17,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,46</t>
+          <t>18,22</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>18,62</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,94</t>
+          <t>18,99</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,91</t>
+          <t>18,81</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,68</t>
+          <t>17,57</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,98</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,59</t>
+          <t>18,14</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,61</t>
+          <t>17,02; 17,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,95</t>
+          <t>17,19; 17,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,0</t>
+          <t>16,98; 17,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,69</t>
+          <t>17,36; 18,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 19,1</t>
+          <t>17,88; 18,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,54; 20,25</t>
+          <t>18,26; 19,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 18,63</t>
+          <t>18,5; 19,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 19,42</t>
+          <t>18,33; 19,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,93</t>
+          <t>17,42; 17,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 18,46</t>
+          <t>17,66; 18,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,51</t>
+          <t>17,69; 18,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 18,13</t>
+          <t>17,89; 18,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>17,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,17</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,22</t>
+          <t>18,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,62</t>
+          <t>18,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,99</t>
+          <t>18,59</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,82</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,57</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>17,82</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>17,58</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>17,47</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 17,39</t>
+          <t>17,0; 17,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,91</t>
+          <t>17,22; 17,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,44</t>
+          <t>16,89; 17,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 18,15</t>
+          <t>16,98; 17,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,88; 18,64</t>
+          <t>17,96; 18,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,26; 19,17</t>
+          <t>18,48; 19,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,5; 19,83</t>
+          <t>18,3; 18,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,34; 19,33</t>
+          <t>17,0; 18,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 17,78</t>
+          <t>17,34; 17,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,66; 18,21</t>
+          <t>17,68; 17,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,69; 18,28</t>
+          <t>17,45; 17,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,9; 18,47</t>
+          <t>17,08; 17,65</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>17,1</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,34</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,14</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>18,14</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>18,76</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>18,59</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>18,25</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>17,43</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>17,82</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>17,58</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>17,0; 17,19</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17,22; 17,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16,89; 17,12</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,0; 17,3</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>17,96; 18,35</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>18,48; 19,14</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>18,3; 18,98</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17,49; 18,66</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,34; 17,54</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>17,68; 17,97</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 17,73</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 17,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q31A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,11</t>
+          <t>16,81; 17,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,6</t>
+          <t>17,05; 17,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,26</t>
+          <t>16,74; 17,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 16,73</t>
+          <t>16,34; 16,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 18,2</t>
+          <t>17,6; 18,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,24; 19,46</t>
+          <t>18,22; 19,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,14; 19,9</t>
+          <t>18,16; 19,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,96</t>
+          <t>17,22; 17,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,37</t>
+          <t>17,09; 17,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 18,0</t>
+          <t>17,5; 18,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,91</t>
+          <t>17,23; 17,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,67; 17,02</t>
+          <t>16,68; 17,02</t>
         </is>
       </c>
     </row>
@@ -869,57 +869,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,5</t>
+          <t>17,02; 17,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,29</t>
+          <t>16,81; 17,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,13</t>
+          <t>16,67; 17,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 18,51</t>
+          <t>17,74; 18,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 19,4</t>
+          <t>18,15; 19,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,97; 19,17</t>
+          <t>18,04; 19,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,87; 19,13</t>
+          <t>17,9; 19,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,5</t>
+          <t>17,15; 17,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,48; 17,97</t>
+          <t>17,48; 18,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,85</t>
+          <t>17,29; 17,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 17,62</t>
+          <t>17,12; 17,64</t>
         </is>
       </c>
     </row>
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,61</t>
+          <t>17,17; 17,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,95</t>
+          <t>17,14; 17,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,0</t>
+          <t>16,56; 17,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,64</t>
+          <t>17,01; 17,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,98; 19,1</t>
+          <t>17,98; 19,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 20,25</t>
+          <t>18,56; 20,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 18,63</t>
+          <t>17,54; 18,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 19,41</t>
+          <t>16,35; 19,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,65; 18,46</t>
+          <t>17,67; 18,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,51</t>
+          <t>16,99; 17,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 18,05</t>
+          <t>16,58; 18,02</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1149,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,91</t>
+          <t>17,18; 17,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,44</t>
+          <t>16,98; 17,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 18,12</t>
+          <t>17,4; 18,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 18,64</t>
+          <t>17,88; 18,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 19,17</t>
+          <t>18,2; 19,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 19,83</t>
+          <t>18,5; 19,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 19,31</t>
+          <t>18,37; 19,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 17,78</t>
+          <t>17,4; 17,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 18,21</t>
+          <t>17,67; 18,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 18,28</t>
+          <t>17,68; 18,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 18,45</t>
+          <t>17,89; 18,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,19</t>
+          <t>17,0; 17,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,5</t>
+          <t>17,21; 17,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,12</t>
+          <t>16,89; 17,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,27</t>
+          <t>16,99; 17,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,14</t>
+          <t>18,47; 19,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,98</t>
+          <t>18,31; 18,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,64</t>
+          <t>16,99; 18,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,54</t>
+          <t>17,34; 17,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,97</t>
+          <t>17,69; 17,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,73</t>
+          <t>17,45; 17,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,65</t>
+          <t>17,11; 17,65</t>
         </is>
       </c>
     </row>
